--- a/Desafios/Desafio13/Desafio13.xlsx
+++ b/Desafios/Desafio13/Desafio13.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rui Santos.LAPTOP-T14Q0KFK\Downloads\estudos\html-css\Desafios\Desafio13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://febomoniz-my.sharepoint.com/personal/rui_santos_ae-almeirim_pt/Documents/Documentos/2022-2023/TM 3.º ano/SI/M8 - UFCD 9952 - Programação de aplicações e sítios web dinâmicos/aulas/HTML-CSS/Desafios/Desafio13/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC51826-361F-4AA8-B31B-38BDC2838F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{833D35E6-F25C-4AFE-9884-9C7FF1CBC393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4011432-FD93-420C-9F51-1CDC4B5A9E81}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{70E204D5-C9D9-4FFE-86E0-DAD5183875C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{70E204D5-C9D9-4FFE-86E0-DAD5183875C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Desafio13p1" sheetId="1" r:id="rId1"/>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5AF628-F5D3-40EF-B036-06BF35B3E027}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -844,7 +844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6738EB-4DED-488C-BA00-A2CBB9809C5E}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
